--- a/src/main/webapp/Home/学习计划.xlsx
+++ b/src/main/webapp/Home/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8616" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8617" uniqueCount="354">
   <si>
     <t>婷</t>
   </si>
@@ -1005,15 +1005,6 @@
     <t>8.1完成</t>
   </si>
   <si>
-    <t>mycat</t>
-  </si>
-  <si>
-    <t>8.4完成</t>
-  </si>
-  <si>
-    <t>使用版块</t>
-  </si>
-  <si>
     <t>kafka+原生队列 （activemq，rabbitmq）</t>
   </si>
   <si>
@@ -1023,13 +1014,16 @@
     <t>8.11完成</t>
   </si>
   <si>
+    <t>使用版块</t>
+  </si>
+  <si>
     <t>redis+内存缓存 redis单点登陆session控制</t>
   </si>
   <si>
     <t>8.18完成</t>
   </si>
   <si>
-    <t>Nginx</t>
+    <t>mycat</t>
   </si>
   <si>
     <t>cloud慕课网的</t>
@@ -1038,31 +1032,46 @@
     <t>8.31完成</t>
   </si>
   <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>docker+kubernetes</t>
+  </si>
+  <si>
     <t>redis</t>
   </si>
   <si>
-    <t>kubernetes</t>
+    <t>复习 基础刷题 数据结构+框架</t>
   </si>
   <si>
     <t>zk</t>
   </si>
   <si>
-    <t>复习 基础刷题 数据结构+框架</t>
+    <t>kafka 原生队列 （activemq，rabbitmq）</t>
   </si>
   <si>
-    <t>kafka 原生队列 （activemq，rabbitmq）</t>
+    <t>优先tomcat cloud docker k8s 队列 缓存</t>
   </si>
   <si>
     <t>BAJ详细题</t>
   </si>
   <si>
+    <t>docker https://www.imooc.com/learn/867</t>
+  </si>
+  <si>
     <t>回顾知识</t>
+  </si>
+  <si>
+    <t>https://ke.qq.com/course/327760</t>
   </si>
   <si>
     <t>刷面试基本题(设计模式啊 基本数据结构啊 并发)</t>
   </si>
   <si>
     <t>搭建主从部署 热备</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
   </si>
   <si>
     <t>docker</t>
@@ -1154,10 +1163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1239,21 +1248,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1268,11 +1262,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1283,31 +1276,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1322,8 +1308,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1338,7 +1339,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,6 +1361,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1367,19 +1384,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1416,7 +1425,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,43 +1569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,79 +1593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1566,37 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1691,6 +1700,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1708,18 +1765,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1747,47 +1797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1796,10 +1805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1808,133 +1817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2129,8 +2138,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="00FFFF00"/>
       <color rgb="00FF0000"/>
-      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -62856,7 +62865,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F14" sqref="F11 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -62865,7 +62874,7 @@
     <col min="3" max="3" width="13.375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="6" max="6" width="43.125" customWidth="1"/>
     <col min="10" max="10" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -62923,19 +62932,22 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>303</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>304</v>
       </c>
       <c r="I3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>296</v>
@@ -62945,13 +62957,10 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G4">
         <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>307</v>
       </c>
       <c r="I4" t="s">
         <v>308</v>
@@ -62962,42 +62971,39 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>309</v>
+      <c r="F5" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="I5" t="s">
-        <v>310</v>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>312</v>
+      <c r="F6" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>313</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>3</v>
       </c>
@@ -63010,11 +63016,8 @@
       <c r="F7" t="s">
         <v>315</v>
       </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -63024,22 +63027,22 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="F8" t="s">
-        <v>317</v>
-      </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F9" t="s">
         <v>318</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>307</v>
-      </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>6</v>
       </c>
@@ -63049,13 +63052,19 @@
       <c r="C10">
         <v>3</v>
       </c>
+      <c r="F10" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="F11" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -63063,7 +63072,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -63071,7 +63080,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:3">
@@ -63079,7 +63088,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -63090,7 +63099,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -63101,12 +63110,12 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C17">
         <v>45</v>
@@ -63114,8 +63123,11 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I5:I6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F11" r:id="rId1" display="https://ke.qq.com/course/327760" tooltip="https://ke.qq.com/course/327760"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -63141,18 +63153,18 @@
         <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -63164,12 +63176,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -63181,12 +63193,12 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -63198,12 +63210,12 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -63215,12 +63227,12 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -63231,7 +63243,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -63242,7 +63254,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -63253,7 +63265,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -63264,7 +63276,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -63275,7 +63287,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -63286,7 +63298,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -63297,7 +63309,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -63308,7 +63320,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -63319,7 +63331,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -63330,7 +63342,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -63341,7 +63353,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -63352,7 +63364,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -63363,7 +63375,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B20">
         <v>5</v>

--- a/src/main/webapp/Home/学习计划.xlsx
+++ b/src/main/webapp/Home/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -1163,10 +1163,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1249,12 +1249,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1269,77 +1354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,30 +1370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1387,6 +1380,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1425,7 +1425,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,7 +1491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,91 +1509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,13 +1533,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,31 +1587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,7 +1605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,11 +1700,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1720,30 +1735,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1765,11 +1756,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1788,15 +1797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1805,10 +1805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1817,133 +1817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -62865,7 +62865,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F11 F14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/webapp/Home/学习计划.xlsx
+++ b/src/main/webapp/Home/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8617" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8622" uniqueCount="357">
   <si>
     <t>婷</t>
   </si>
@@ -1077,10 +1077,19 @@
     <t>docker</t>
   </si>
   <si>
+    <t>812计划：原生队列 tomcat优化  mysql优化 es</t>
+  </si>
+  <si>
     <t>hbase hive  spark</t>
   </si>
   <si>
+    <t>cloud搞完</t>
+  </si>
+  <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>队列</t>
   </si>
   <si>
     <t>课时</t>
@@ -1163,10 +1172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1248,21 +1257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1271,33 +1265,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1317,16 +1289,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,8 +1325,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,7 +1379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,8 +1393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1425,31 +1434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,25 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,7 +1464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,7 +1488,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,43 +1578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,43 +1596,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1700,17 +1709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,6 +1722,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1740,6 +1754,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1750,26 +1779,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1805,10 +1814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1817,19 +1826,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1838,112 +1847,112 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -62862,10 +62871,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -63094,7 +63103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:3">
+    <row r="15" customFormat="1" spans="1:6">
       <c r="A15">
         <v>11</v>
       </c>
@@ -63104,21 +63113,40 @@
       <c r="C15">
         <v>2</v>
       </c>
+      <c r="F15" t="s">
+        <v>327</v>
+      </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="F16" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C17">
         <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -63153,18 +63181,18 @@
         <v>295</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -63176,12 +63204,12 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -63193,12 +63221,12 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -63210,12 +63238,12 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -63227,12 +63255,12 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -63243,7 +63271,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -63254,7 +63282,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -63265,7 +63293,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -63276,7 +63304,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -63287,7 +63315,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -63298,7 +63326,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -63309,7 +63337,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -63320,7 +63348,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -63331,7 +63359,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -63342,7 +63370,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -63353,7 +63381,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -63364,7 +63392,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -63375,7 +63403,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B20">
         <v>5</v>

--- a/src/main/webapp/Home/学习计划.xlsx
+++ b/src/main/webapp/Home/学习计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1257,111 +1257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1379,6 +1274,103 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1395,7 +1387,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,7 +1434,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,7 +1470,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,49 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,43 +1554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,19 +1566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,7 +1584,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,19 +1602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,50 +1709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1792,6 +1748,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1806,6 +1780,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1814,10 +1814,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1826,133 +1826,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -62874,7 +62874,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
